--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H2">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>3572.277011995278</v>
+        <v>10.69409717993466</v>
       </c>
       <c r="R2">
-        <v>32150.49310795751</v>
+        <v>96.24687461941198</v>
       </c>
       <c r="S2">
-        <v>0.1015799914701975</v>
+        <v>0.0003411993431222216</v>
       </c>
       <c r="T2">
-        <v>0.1015799914701975</v>
+        <v>0.0003411993431222216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H3">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>2211.639389986859</v>
+        <v>6.153268899806111</v>
       </c>
       <c r="R3">
-        <v>19904.75450988173</v>
+        <v>55.379420098255</v>
       </c>
       <c r="S3">
-        <v>0.06288938668967781</v>
+        <v>0.0001963224451155649</v>
       </c>
       <c r="T3">
-        <v>0.06288938668967781</v>
+        <v>0.0001963224451155649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H4">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I4">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J4">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>642.0588554908251</v>
+        <v>2.680170665779111</v>
       </c>
       <c r="R4">
-        <v>5778.529699417425</v>
+        <v>24.121535992012</v>
       </c>
       <c r="S4">
-        <v>0.01825735597914739</v>
+        <v>8.551189083404858E-05</v>
       </c>
       <c r="T4">
-        <v>0.01825735597914739</v>
+        <v>8.551189083404858E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H5">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I5">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J5">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>15924.52367490773</v>
+        <v>17134.59604613242</v>
       </c>
       <c r="R5">
-        <v>143320.7130741696</v>
+        <v>154211.3644151917</v>
       </c>
       <c r="S5">
-        <v>0.4528240597334235</v>
+        <v>0.5466859723861901</v>
       </c>
       <c r="T5">
-        <v>0.4528240597334234</v>
+        <v>0.5466859723861902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H6">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I6">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J6">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
-        <v>9859.062919236674</v>
+        <v>9859.062919236676</v>
       </c>
       <c r="R6">
-        <v>88731.56627313005</v>
+        <v>88731.56627313007</v>
       </c>
       <c r="S6">
-        <v>0.2803487870278089</v>
+        <v>0.3145572492230482</v>
       </c>
       <c r="T6">
-        <v>0.2803487870278088</v>
+        <v>0.3145572492230483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H7">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I7">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J7">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>2862.174856713302</v>
+        <v>4294.298145988926</v>
       </c>
       <c r="R7">
-        <v>25759.57371041971</v>
+        <v>38648.68331390034</v>
       </c>
       <c r="S7">
-        <v>0.08138778055421846</v>
+        <v>0.1370112578864135</v>
       </c>
       <c r="T7">
-        <v>0.08138778055421844</v>
+        <v>0.1370112578864135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H8">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I8">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J8">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N8">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q8">
-        <v>53.03162869788222</v>
+        <v>19.266989242996</v>
       </c>
       <c r="R8">
-        <v>477.28465828094</v>
+        <v>173.402903186964</v>
       </c>
       <c r="S8">
-        <v>0.001507988426623359</v>
+        <v>0.0006147208093440296</v>
       </c>
       <c r="T8">
-        <v>0.001507988426623359</v>
+        <v>0.0006147208093440299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H9">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I9">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J9">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q9">
-        <v>32.83251510158889</v>
+        <v>11.08601911008167</v>
       </c>
       <c r="R9">
-        <v>295.4926359143</v>
+        <v>99.774171990735</v>
       </c>
       <c r="S9">
-        <v>0.0009336136567140716</v>
+        <v>0.0003537037652226917</v>
       </c>
       <c r="T9">
-        <v>0.0009336136567140716</v>
+        <v>0.0003537037652226917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H10">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I10">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J10">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N10">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O10">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P10">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q10">
-        <v>9.531575158433334</v>
+        <v>4.828721725462666</v>
       </c>
       <c r="R10">
-        <v>85.7841764259</v>
+        <v>43.458495529164</v>
       </c>
       <c r="S10">
-        <v>0.0002710364621892553</v>
+        <v>0.0001540622507095945</v>
       </c>
       <c r="T10">
-        <v>0.0002710364621892553</v>
+        <v>0.0001540622507095945</v>
       </c>
     </row>
   </sheetData>
